--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE86ECF-4D2E-4B5C-A3D6-57EC0FE08586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5DE78-A940-47A3-A5DD-6F51DBB11442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,6 @@
     <t>Assets/GameMain/UI/Dynamic/TowerBuildButton.prefab</t>
   </si>
   <si>
-    <t>突击加农炮预览</t>
-  </si>
-  <si>
-    <t>Assets/GameMain/Entity/AssaultCannon/AssaultCannonPreview.prefab</t>
-  </si>
-  <si>
     <t>#UI(1000开始)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +103,13 @@
   </si>
   <si>
     <t>Assets/Prefeb/Bullets/Bullet.prefab</t>
+  </si>
+  <si>
+    <t>角色test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefeb/Charactor/qizi0/unitychan.prefab</t>
   </si>
 </sst>
 </file>
@@ -436,7 +437,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,7 +479,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -503,7 +504,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +520,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,10 +528,10 @@
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,7 +558,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,15 +566,15 @@
         <v>3001</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5DE78-A940-47A3-A5DD-6F51DBB11442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47107EF5-32CE-403F-80D3-A43693AA42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,14 +102,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Prefeb/Bullets/Bullet.prefab</t>
-  </si>
-  <si>
     <t>角色test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Prefeb/Charactor/qizi0/unitychan.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefeb/Bullets/bullet_handle.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,7 +438,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +567,10 @@
         <v>3001</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47107EF5-32CE-403F-80D3-A43693AA42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D257780B-019F-48FE-9BE6-4067791E73B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -111,6 +111,13 @@
   <si>
     <t>Assets/Prefeb/Bullets/bullet_handle.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试的事件UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/UIPrefab/EventPointUI/event_battleorlosecoin.prefab</t>
   </si>
 </sst>
 </file>
@@ -435,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,66 +527,77 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
+        <v>2001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>2002</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>3001</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D257780B-019F-48FE-9BE6-4067791E73B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7B427-C009-42FE-B8DB-DC3B35F54EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="4695" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -117,14 +117,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/UIPrefab/EventPointUI/event_battleorlosecoin.prefab</t>
+    <t>#Sprite(4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/FreeFolkAxe.png</t>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/BattleBow.png</t>
+  </si>
+  <si>
+    <t>匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/AssassinDagger.png</t>
+  </si>
+  <si>
+    <t>护甲板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/SteelTowerShield.png</t>
+  </si>
+  <si>
+    <t>旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/BerserkAxe.png</t>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/GreyKnight.png</t>
+  </si>
+  <si>
+    <t>反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/SmallPotion.png</t>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Image/Icons/ItemIcon/Apple.png</t>
+  </si>
+  <si>
+    <t>Assets/Prefeb/UIPrefab/EventPointUI/event_battleorlosecoin.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefeb/UIPrefab/EventPointUI/event_store.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +202,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -160,8 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,70 +613,174 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>2002</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>3001</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>4002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4003</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4004</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4005</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4501</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4502</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7B427-C009-42FE-B8DB-DC3B35F54EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF44624-D718-4B25-BBC7-9993F5332313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="4695" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,135 +57,148 @@
     <t>启动场景</t>
   </si>
   <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/UI/UIForms/UIMainMenuForm.prefab</t>
+  </si>
+  <si>
+    <t>关卡选择按钮</t>
+  </si>
+  <si>
+    <t>构建炮塔按钮</t>
+  </si>
+  <si>
+    <t>#UI(1000开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#scene(100开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Item(2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Entity(3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Sound(10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试的事件UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Sprite(4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转斧头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/GameMain/Scenes/GameStart/GameStart.unity</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>Assets/GameMain/UI/UIForms/UIMainMenuForm.prefab</t>
-  </si>
-  <si>
-    <t>关卡选择按钮</t>
-  </si>
-  <si>
-    <t>Assets/GameMain/UI/Dynamic/LevelSelectionButton.prefab</t>
-  </si>
-  <si>
-    <t>构建炮塔按钮</t>
-  </si>
-  <si>
-    <t>Assets/GameMain/UI/Dynamic/TowerBuildButton.prefab</t>
-  </si>
-  <si>
-    <t>#UI(1000开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#scene(100开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Item(2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Entity(3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Sound(10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefeb/Charactor/qizi0/unitychan.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Prefeb/Bullets/bullet_handle.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试的事件UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Sprite(4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/FreeFolkAxe.png</t>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/BattleBow.png</t>
-  </si>
-  <si>
-    <t>匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/AssassinDagger.png</t>
-  </si>
-  <si>
-    <t>护甲板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/SteelTowerShield.png</t>
-  </si>
-  <si>
-    <t>旋转斧头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/BerserkAxe.png</t>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/GreyKnight.png</t>
-  </si>
-  <si>
-    <t>反甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动能引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/SmallPotion.png</t>
-  </si>
-  <si>
-    <t>苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Image/Icons/ItemIcon/Apple.png</t>
-  </si>
-  <si>
-    <t>Assets/Prefeb/UIPrefab/EventPointUI/event_battleorlosecoin.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefeb/UIPrefab/EventPointUI/event_store.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/UIPrefab/EventPointUI/event_battleorlosecoin.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/UIPrefab/EventPointUI/event_store.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Bullets/bullet_handle.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/GameMain/UI/Dynamic/LevelSelectionButton.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/GameMain/UI/Dynamic/TowerBuildButton.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/unitychan.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/Apple.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/FreeFolkAxe.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/BattleBow.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/AssassinDagger.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/SteelTowerShield.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/SmallPotion.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/BerserkAxe.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/GreyKnight.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +579,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -586,12 +599,12 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,10 +612,10 @@
         <v>1001</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,10 +623,10 @@
         <v>1101</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,15 +634,15 @@
         <v>1102</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,10 +650,10 @@
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,10 +661,10 @@
         <v>2001</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -659,15 +672,15 @@
         <v>2002</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -675,15 +688,15 @@
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,10 +704,10 @@
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,10 +715,10 @@
         <v>4001</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -713,10 +726,10 @@
         <v>4002</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,10 +737,10 @@
         <v>4003</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,10 +748,10 @@
         <v>4004</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -746,10 +759,10 @@
         <v>4005</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,10 +770,10 @@
         <v>4501</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,15 +781,15 @@
         <v>4502</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF44624-D718-4B25-BBC7-9993F5332313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB37A5-353D-449B-9A81-6EAF901E5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6168" yWindow="3516" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/unitychan.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/GameMain/Image/Icons/ItemIcon/Apple.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,9 @@
   <si>
     <t>Assets/GameMain/Image/Icons/ItemIcon/GreyKnight.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/RobotKyle.prefab</t>
   </si>
 </sst>
 </file>
@@ -537,17 +536,17 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="74.625" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -577,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -591,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>101</v>
       </c>
@@ -602,12 +601,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -618,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1101</v>
       </c>
@@ -629,7 +628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1102</v>
       </c>
@@ -640,12 +639,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2000</v>
       </c>
@@ -656,7 +655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -667,7 +666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2002</v>
       </c>
@@ -678,12 +677,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3001</v>
       </c>
@@ -691,15 +690,15 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4000</v>
       </c>
@@ -707,10 +706,10 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4001</v>
       </c>
@@ -718,10 +717,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>4002</v>
       </c>
@@ -729,10 +728,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4003</v>
       </c>
@@ -740,10 +739,10 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4004</v>
       </c>
@@ -751,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4005</v>
       </c>
@@ -762,10 +761,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4501</v>
       </c>
@@ -773,10 +772,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4502</v>
       </c>
@@ -784,15 +783,15 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB37A5-353D-449B-9A81-6EAF901E5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637749FE-F9EA-4C99-9680-C11FB2675A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6168" yWindow="3516" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="3000" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -197,7 +197,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/RobotKyle.prefab</t>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/qizi0.prefab</t>
+  </si>
+  <si>
+    <t>敌人test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/enemy0.prefab</t>
   </si>
 </sst>
 </file>
@@ -533,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -694,105 +701,116 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>3051</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>4000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>4004</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>4003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>4501</v>
+        <v>4005</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
+        <v>4501</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>4502</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637749FE-F9EA-4C99-9680-C11FB2675A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61A5D5-5B5C-402B-A760-0BA263146F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="3000" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +205,52 @@
   </si>
   <si>
     <t>Assets/GameMain/Prefeb/Charactor/enemy0/enemy0.prefab</t>
+  </si>
+  <si>
+    <t>#Anim(6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Idle.anim</t>
+  </si>
+  <si>
+    <t>僵尸run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Run.anim</t>
+  </si>
+  <si>
+    <t>僵尸攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Attack.anim</t>
+  </si>
+  <si>
+    <t>僵尸倒地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_FallingBack.anim</t>
+  </si>
+  <si>
+    <t>主角idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/RUN00_F.anim</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/WAIT00.anim</t>
+  </si>
+  <si>
+    <t>主角run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,20 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -597,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -608,12 +654,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -624,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1101</v>
       </c>
@@ -635,7 +681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1102</v>
       </c>
@@ -646,12 +692,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2000</v>
       </c>
@@ -662,7 +708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -673,7 +719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2002</v>
       </c>
@@ -684,12 +730,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3001</v>
       </c>
@@ -700,7 +746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3051</v>
       </c>
@@ -711,12 +757,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>4000</v>
       </c>
@@ -727,7 +773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>4001</v>
       </c>
@@ -738,7 +784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>4002</v>
       </c>
@@ -749,7 +795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4003</v>
       </c>
@@ -760,7 +806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4004</v>
       </c>
@@ -771,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4005</v>
       </c>
@@ -782,7 +828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>4501</v>
       </c>
@@ -793,7 +839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>4502</v>
       </c>
@@ -804,13 +850,85 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>6001</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>6002</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>6003</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>6004</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>6011</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>6012</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E61A5D5-5B5C-402B-A760-0BA263146F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15537A41-06F9-4BE0-9523-88C6947B9BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="8790" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -251,6 +251,17 @@
   <si>
     <t>主角run</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Sfx(3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Sfx/CFXR3 Hit Fire B (Air).prefab</t>
   </si>
 </sst>
 </file>
@@ -586,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,176 +770,192 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>4000</v>
+        <v>3301</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>4001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>4004</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>4002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>4005</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>4003</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>4501</v>
+        <v>4004</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>4502</v>
+        <v>4005</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26">
+        <v>4501</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>6001</v>
+        <v>4502</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>6002</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>6011</v>
+        <v>6003</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32">
+        <v>6004</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>6011</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>6012</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15537A41-06F9-4BE0-9523-88C6947B9BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E615CD-C250-4989-98A3-27B1401560C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="8790" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -193,75 +193,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/qizi0.prefab</t>
+  </si>
+  <si>
+    <t>敌人test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/enemy0.prefab</t>
+  </si>
+  <si>
+    <t>#Anim(6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Idle.anim</t>
+  </si>
+  <si>
+    <t>僵尸run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Run.anim</t>
+  </si>
+  <si>
+    <t>僵尸攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Attack.anim</t>
+  </si>
+  <si>
+    <t>僵尸倒地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_FallingBack.anim</t>
+  </si>
+  <si>
+    <t>主角idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/RUN00_F.anim</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/WAIT00.anim</t>
+  </si>
+  <si>
+    <t>主角run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Sfx(3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Sfx/CFXR3 Hit Fire B (Air).prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/ItemIcon/DarkMountain.png</t>
+  </si>
+  <si>
+    <t>充能护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/GameMain/Image/Icons/ItemIcon/GreyKnight.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/qizi0.prefab</t>
-  </si>
-  <si>
-    <t>敌人test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/enemy0/enemy0.prefab</t>
-  </si>
-  <si>
-    <t>#Anim(6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Idle.anim</t>
-  </si>
-  <si>
-    <t>僵尸run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Run.anim</t>
-  </si>
-  <si>
-    <t>僵尸攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_Attack.anim</t>
-  </si>
-  <si>
-    <t>僵尸倒地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/enemy0/Z_FallingBack.anim</t>
-  </si>
-  <si>
-    <t>主角idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/RUN00_F.anim</t>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/WAIT00.anim</t>
-  </si>
-  <si>
-    <t>主角run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Sfx(3300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Prefeb/Sfx/CFXR3 Hit Fire B (Air).prefab</t>
   </si>
 </sst>
 </file>
@@ -597,20 +603,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="74.625" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -640,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -654,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>101</v>
       </c>
@@ -665,12 +671,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1101</v>
       </c>
@@ -692,7 +698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1102</v>
       </c>
@@ -703,12 +709,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2000</v>
       </c>
@@ -719,7 +725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -730,7 +736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2002</v>
       </c>
@@ -741,12 +747,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3001</v>
       </c>
@@ -754,42 +760,42 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3051</v>
       </c>
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3301</v>
       </c>
       <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4000</v>
       </c>
@@ -800,7 +806,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>4001</v>
       </c>
@@ -811,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4002</v>
       </c>
@@ -822,7 +828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4003</v>
       </c>
@@ -833,7 +839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4004</v>
       </c>
@@ -844,7 +850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4005</v>
       </c>
@@ -855,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4501</v>
       </c>
@@ -866,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4502</v>
       </c>
@@ -874,88 +880,99 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4503</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6001</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>6001</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D30" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6002</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>6002</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6003</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>6003</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>6004</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>6004</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>6011</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>6011</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>6012</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>6012</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E615CD-C250-4989-98A3-27B1401560C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE7F75-6FB8-407B-B251-568367A8FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Assets/GameMain/UI/UIForms/UIMainMenuForm.prefab</t>
   </si>
   <si>
-    <t>关卡选择按钮</t>
-  </si>
-  <si>
-    <t>构建炮塔按钮</t>
-  </si>
-  <si>
     <t>#UI(1000开始)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameMain/GameMain/UI/Dynamic/LevelSelectionButton.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/GameMain/UI/Dynamic/TowerBuildButton.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/GameMain/Image/Icons/ItemIcon/Apple.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,9 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameMain/Prefeb/Charactor/qizi0/qizi0.prefab</t>
-  </si>
-  <si>
     <t>敌人test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +251,40 @@
   </si>
   <si>
     <t>Assets/GameMain/Image/Icons/ItemIcon/GreyKnight.png</t>
+  </si>
+  <si>
+    <t>挥砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/HorizontalSwing.anim</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/qizi0/KyleRobot.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Weapons/Dagger_01.prefab</t>
+  </si>
+  <si>
+    <t>宽匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Weapons/Hammer_01.prefab</t>
+  </si>
+  <si>
+    <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Weapons/Sword_01.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Weapons/Ax_01.prefab</t>
   </si>
 </sst>
 </file>
@@ -603,20 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -646,9 +663,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -660,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -668,15 +685,15 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -687,292 +704,325 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1101</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1102</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2001</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2002</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3051</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>4003</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3001</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4004</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>4005</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>4501</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>4502</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>4503</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>6001</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>3051</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>6002</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>3301</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6003</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>6004</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6011</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>6012</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>6101</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>4000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>4001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4002</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>4003</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>4004</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4005</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>4501</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>4502</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>4503</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>6001</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>6002</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6003</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>6004</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>6011</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>6012</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE7F75-6FB8-407B-B251-568367A8FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FC90F-295A-4CF0-9ED3-743B9E539FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="7245" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3228" yWindow="2784" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -285,6 +285,53 @@
   </si>
   <si>
     <t>Assets/GameMain/Prefeb/Weapons/Ax_01.prefab</t>
+  </si>
+  <si>
+    <t>关卡boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/MazePointIcon/0.png</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/MazePointIcon/1.png</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/MazePointIcon/3.png</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/MazePointIcon/4.png</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Image/Icons/MazePointIcon/5.png</t>
+  </si>
+  <si>
+    <t>关卡小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡精英怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,20 +667,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="74.625" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -663,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -677,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>101</v>
       </c>
@@ -688,12 +735,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -704,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1101</v>
       </c>
@@ -715,7 +762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1102</v>
       </c>
@@ -726,12 +773,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2000</v>
       </c>
@@ -742,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -753,7 +800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2002</v>
       </c>
@@ -764,7 +811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2003</v>
       </c>
@@ -775,7 +822,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2004</v>
       </c>
@@ -786,12 +833,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3001</v>
       </c>
@@ -802,7 +849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>3051</v>
       </c>
@@ -813,12 +860,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3301</v>
       </c>
@@ -829,12 +876,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4000</v>
       </c>
@@ -845,7 +892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4001</v>
       </c>
@@ -856,7 +903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>4002</v>
       </c>
@@ -867,7 +914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4003</v>
       </c>
@@ -878,7 +925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4004</v>
       </c>
@@ -889,7 +936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>4005</v>
       </c>
@@ -900,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4501</v>
       </c>
@@ -911,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4502</v>
       </c>
@@ -922,7 +969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4503</v>
       </c>
@@ -933,96 +980,184 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4800</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4801</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4802</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4803</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4804</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4805</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4806</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4807</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>6001</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>6002</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>6003</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>6004</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>6011</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>6012</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>6101</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2wenjian\unitytest\zizouqi\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664FC90F-295A-4CF0-9ED3-743B9E539FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E1DA7-408B-4F7F-BDCC-AAA3094C4ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="2784" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4430" yWindow="5090" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>关卡空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#LevelObj(3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/LevelObj/outwild.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,20 +679,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
     <col min="4" max="4" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -699,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -710,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -724,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>101</v>
       </c>
@@ -735,12 +747,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1001</v>
       </c>
@@ -751,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1101</v>
       </c>
@@ -762,7 +774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1102</v>
       </c>
@@ -773,12 +785,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2000</v>
       </c>
@@ -789,7 +801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -800,7 +812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2002</v>
       </c>
@@ -811,7 +823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2003</v>
       </c>
@@ -822,7 +834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2004</v>
       </c>
@@ -833,12 +845,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3001</v>
       </c>
@@ -849,7 +861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>3051</v>
       </c>
@@ -860,12 +872,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3301</v>
       </c>
@@ -876,288 +888,304 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3501</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>4000</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>4001</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>4002</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>4003</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>4004</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>4005</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>4501</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>4502</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>4503</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>4800</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>4801</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>4802</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>4803</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>4804</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>4805</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>4806</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>4807</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>6001</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43">
         <v>6002</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>6003</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>6004</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>6011</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47">
         <v>6012</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>6101</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E1DA7-408B-4F7F-BDCC-AAA3094C4ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE994C1-B663-4F34-84FE-602B595D5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="5090" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>#</t>
   </si>
@@ -344,6 +344,20 @@
   <si>
     <t>Assets/GameMain/Prefeb/LevelObj/outwild.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/Ambient_StartTitle.wav</t>
+  </si>
+  <si>
+    <t>UI按钮音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/SWORD_05.wav</t>
   </si>
 </sst>
 </file>
@@ -679,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1179,13 +1193,35 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>10001</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>10002</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE994C1-B663-4F34-84FE-602B595D5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE76EA5-AE3F-438F-B18D-8BA7D008D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7780" yWindow="5070" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -358,6 +358,13 @@
   </si>
   <si>
     <t>Assets/GameMain/Audio/SWORD_05.wav</t>
+  </si>
+  <si>
+    <t>二郎神开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Charactor/shield_power.anim</t>
   </si>
 </sst>
 </file>
@@ -693,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1194,34 +1201,45 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>6102</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>10001</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51">
+        <v>10001</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>10002</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE76EA5-AE3F-438F-B18D-8BA7D008D69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F5710-49E1-47CC-8C95-2726795BFF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="5070" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-630" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -357,14 +357,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/GameMain/Audio/SWORD_05.wav</t>
-  </si>
-  <si>
     <t>二郎神开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/GameMain/Prefeb/Charactor/shield_power.anim</t>
+  </si>
+  <si>
+    <t>护盾特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Sfx/ForceField/ForceField.prefab</t>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/SFX_UI_Button_Keyboard_Enter_Thick_2.wav</t>
+  </si>
+  <si>
+    <t>飞剑生成光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Sfx/PortalBlue/Portalblue.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -700,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -910,336 +925,358 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>85</v>
+      <c r="B21">
+        <v>3302</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>3501</v>
+        <v>3303</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>4000</v>
+        <v>3501</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>4001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
+      <c r="A25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>4004</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>4002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>4005</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>4003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>4501</v>
+        <v>4004</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>4502</v>
+        <v>4005</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>4800</v>
+        <v>4502</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>4801</v>
+        <v>4503</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>4802</v>
+        <v>4800</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>4803</v>
+        <v>4801</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>4804</v>
+        <v>4802</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>4805</v>
+        <v>4803</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>4807</v>
+        <v>4805</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>4806</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>6001</v>
+        <v>4807</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>6002</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>6011</v>
+        <v>6003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>6012</v>
+        <v>6004</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>6101</v>
+        <v>6011</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>6102</v>
+        <v>6012</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>16</v>
+      <c r="B50">
+        <v>6101</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51">
+        <v>6102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53">
         <v>10001</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54">
         <v>10002</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F5710-49E1-47CC-8C95-2726795BFF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2ECF4-D9AF-499A-8316-E64886677DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-630" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="-2910" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -380,6 +380,13 @@
   <si>
     <t>Assets/GameMain/Prefeb/Sfx/PortalBlue/Portalblue.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Prefeb/Bullets/SwordFly/sword2_handle.prefab</t>
   </si>
 </sst>
 </file>
@@ -715,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -882,218 +889,218 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>3001</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18">
+        <v>3001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>3051</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>3301</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22">
+        <v>3302</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>3303</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>3501</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>4000</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>4004</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>4003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>4501</v>
+        <v>4005</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>4800</v>
+        <v>4503</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
         <v>77</v>
@@ -1101,182 +1108,193 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>4807</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>6001</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>6011</v>
+        <v>6004</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>6101</v>
+        <v>6012</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51">
+        <v>6101</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>6102</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>10001</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54">
+        <v>10001</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55">
         <v>10002</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Config/AssetsPath.xlsx
+++ b/Config/AssetsPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2ECF4-D9AF-499A-8316-E64886677DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C273B6C-DEAA-44BE-A34E-5F76A04FF636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="-2910" windowWidth="21810" windowHeight="23430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -387,6 +387,27 @@
   </si>
   <si>
     <t>Assets/GameMain/Prefeb/Bullets/SwordFly/sword2_handle.prefab</t>
+  </si>
+  <si>
+    <t>飞剑生成音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/SFX_UI_Click_Designed_Plastic_Metallic_Negative_Close_1.wav</t>
+  </si>
+  <si>
+    <t>飞剑飞行音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/electronic_01.wav</t>
+  </si>
+  <si>
+    <t>飞剑命中音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Audio/cutting_with_a_katana.wav</t>
   </si>
 </sst>
 </file>
@@ -722,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1294,8 +1315,36 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>0</v>
+      <c r="B56">
+        <v>12001</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>12002</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>12003</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
